--- a/DataTable/BattleCardTable.xlsx
+++ b/DataTable/BattleCardTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,7 +133,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌类型(攻击,装备,特效,法术)</t>
+    <t>ActionTypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionParams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效类型(攻击,加攻击,回血,吸血,加buff,抽卡,弃卡,对面弃卡,对面抽卡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,19 +173,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Effect0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arg0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效类型(攻击,加攻击,回血,吸血,加buff,抽卡,弃卡,对面弃卡,对面抽卡)</t>
+    <t>图标路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITexture/Euiip/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITexture/Euiip/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITexture/Euiip/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITexture/Euiip/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽一张卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸一张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌类型(攻击0,装备1,法术2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITexture/Skill/skill_common_evade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回4滴血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITexture/Skill/skill_yasewang_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一回合回1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绷带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打绷带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITexture/Skill/skill_yuefei_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,20 +621,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="28.375" customWidth="1"/>
-    <col min="6" max="6" width="64.25" customWidth="1"/>
+    <col min="5" max="6" width="28.375" customWidth="1"/>
+    <col min="7" max="7" width="48.875" customWidth="1"/>
+    <col min="8" max="8" width="28.375" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,13 +654,22 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -578,13 +686,22 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -598,16 +715,25 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -623,8 +749,23 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -640,8 +781,23 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -657,8 +813,23 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -673,6 +844,117 @@
       </c>
       <c r="E7">
         <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/BattleCardTable.xlsx
+++ b/DataTable/BattleCardTable.xlsx
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特效类型(攻击,加攻击,回血,吸血,加buff,抽卡,弃卡,对面弃卡,对面抽卡)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特效参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +246,10 @@
   </si>
   <si>
     <t>UITexture/Skill/skill_yuefei_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效类型(BattleActionType)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +625,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -634,7 +634,7 @@
     <col min="5" max="6" width="28.375" customWidth="1"/>
     <col min="7" max="7" width="48.875" customWidth="1"/>
     <col min="8" max="8" width="28.375" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -654,13 +654,13 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>25</v>
@@ -686,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>27</v>
@@ -715,22 +715,22 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -747,13 +747,13 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -779,13 +779,13 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -811,13 +811,13 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -843,13 +843,13 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -866,13 +866,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -898,13 +898,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -930,13 +930,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10">
         <v>5</v>

--- a/DataTable/BattleCardTable.xlsx
+++ b/DataTable/BattleCardTable.xlsx
@@ -625,7 +625,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/DataTable/BattleCardTable.xlsx
+++ b/DataTable/BattleCardTable.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\BigHead\DataTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,13 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>N</t>
     </r>
     <r>
@@ -35,229 +35,170 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ame</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Comment</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Spending</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>ActionTypes</t>
+  </si>
+  <si>
+    <t>ActionParams</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">string </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>#目录</t>
   </si>
   <si>
     <t>文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划备注</t>
   </si>
   <si>
     <t>卡牌描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌类型(攻击0,装备1,法术2)</t>
+  </si>
+  <si>
+    <t>魔法开销</t>
+  </si>
+  <si>
+    <t>图标路径</t>
+  </si>
+  <si>
+    <t>购买开销</t>
+  </si>
+  <si>
+    <t>特效类型(BattleActionType)</t>
+  </si>
+  <si>
+    <t>特效参数</t>
   </si>
   <si>
     <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1点伤害的</t>
+  </si>
+  <si>
+    <t>轻轻的抚摸</t>
+  </si>
+  <si>
+    <t>UITexture/Equip/1</t>
   </si>
   <si>
     <t>小攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2点伤害的</t>
+  </si>
+  <si>
+    <t>扇一巴掌</t>
+  </si>
+  <si>
+    <t>UITexture/Equip/7</t>
   </si>
   <si>
     <t>中攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3点伤害的</t>
+  </si>
+  <si>
+    <t>揍一拳</t>
+  </si>
+  <si>
+    <t>UITexture/Equip/15</t>
   </si>
   <si>
     <t>大攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1点伤害的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2点伤害的</t>
-  </si>
-  <si>
-    <t>3点伤害的</t>
   </si>
   <si>
     <t>4点伤害的</t>
   </si>
   <si>
-    <t>揍一拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>踹一脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻轻的抚摸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扇一巴掌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionTypes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionParams</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买开销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITexture/Euiip/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITexture/Euiip/7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITexture/Euiip/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITexture/Euiip/31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法开销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITexture/Equip/31</t>
   </si>
   <si>
     <t>抽卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>抽一张卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>摸一张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌类型(攻击0,装备1,法术2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UITexture/Skill/skill_common_evade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回4滴血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UITexture/Skill/skill_yasewang_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绷带</t>
   </si>
   <si>
     <t>一回合回1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绷带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打绷带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UITexture/Skill/skill_yuefei_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效类型(BattleActionType)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,37 +207,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -304,9 +560,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -314,21 +812,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -377,7 +919,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,7 +954,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,20 +1157,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="6" width="28.375" customWidth="1"/>
@@ -637,7 +1180,7 @@
     <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,106 +1188,106 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -753,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -765,18 +1308,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -785,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -797,18 +1340,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -817,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -829,18 +1372,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -849,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -861,18 +1404,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -881,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -893,18 +1436,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -913,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -925,18 +1468,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -945,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -958,36 +1501,42 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataTable/BattleCardTable.xlsx
+++ b/DataTable/BattleCardTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>Id</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Quality</t>
+  </si>
+  <si>
     <t>Spending</t>
   </si>
   <si>
@@ -89,7 +92,10 @@
     <t>卡牌描述</t>
   </si>
   <si>
-    <t>卡牌类型(攻击0,装备1,法术2)</t>
+    <t>卡牌类型(攻击0,装备1,法术2,消耗品)</t>
+  </si>
+  <si>
+    <t>卡牌品质(白绿蓝紫橙)0开始</t>
   </si>
   <si>
     <t>魔法开销</t>
@@ -193,10 +199,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -210,7 +216,128 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,140 +349,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -367,19 +372,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,145 +528,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,71 +571,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +593,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -666,10 +671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +683,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -812,7 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1163,24 +1168,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="6" width="28.375" customWidth="1"/>
-    <col min="7" max="7" width="48.875" customWidth="1"/>
-    <col min="8" max="8" width="28.375" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="39.125" customWidth="1"/>
+    <col min="6" max="7" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="48.875" customWidth="1"/>
+    <col min="9" max="9" width="28.375" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1211,83 +1217,92 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1295,31 +1310,34 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1327,31 +1345,34 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
         <v>5</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1359,31 +1380,34 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1391,112 +1415,124 @@
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7">
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
       <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9">
+      <c r="H9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10">
+      <c r="H10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2</v>
       </c>
     </row>

--- a/DataTable/BattleCardTable.xlsx
+++ b/DataTable/BattleCardTable.xlsx
@@ -122,7 +122,7 @@
     <t>轻轻的抚摸</t>
   </si>
   <si>
-    <t>UITexture/Equip/1</t>
+    <t>Equip/1</t>
   </si>
   <si>
     <t>小攻击</t>
@@ -134,7 +134,7 @@
     <t>扇一巴掌</t>
   </si>
   <si>
-    <t>UITexture/Equip/7</t>
+    <t>Equip/7</t>
   </si>
   <si>
     <t>中攻击</t>
@@ -146,7 +146,7 @@
     <t>揍一拳</t>
   </si>
   <si>
-    <t>UITexture/Equip/15</t>
+    <t>Equip/15</t>
   </si>
   <si>
     <t>大攻击</t>
@@ -158,7 +158,7 @@
     <t>踹一脚</t>
   </si>
   <si>
-    <t>UITexture/Equip/31</t>
+    <t>Equip/31</t>
   </si>
   <si>
     <t>抽卡</t>
@@ -170,7 +170,7 @@
     <t>摸一张</t>
   </si>
   <si>
-    <t>UITexture/Skill/skill_common_evade</t>
+    <t>Skill/skill_common_evade</t>
   </si>
   <si>
     <t>回血</t>
@@ -179,7 +179,7 @@
     <t>回4滴血</t>
   </si>
   <si>
-    <t>UITexture/Skill/skill_yasewang_1</t>
+    <t>Skill/skill_yasewang_1</t>
   </si>
   <si>
     <t>绷带</t>
@@ -191,7 +191,7 @@
     <t>打绷带</t>
   </si>
   <si>
-    <t>UITexture/Skill/skill_yuefei_2</t>
+    <t>Skill/skill_yuefei_2</t>
   </si>
 </sst>
 </file>
@@ -199,8 +199,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -228,6 +228,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -235,9 +273,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,63 +282,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,6 +296,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -321,37 +312,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,31 +372,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,37 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,109 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +563,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,17 +590,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,47 +640,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,10 +671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,130 +686,130 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,7 +1173,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DataTable/BattleCardTable.xlsx
+++ b/DataTable/BattleCardTable.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\BigHead\DataTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -193,18 +198,50 @@
   <si>
     <t>Skill/skill_yuefei_2</t>
   </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业限制0通用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Limit</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,348 +253,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -565,317 +293,34 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1162,31 +607,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="39.125" customWidth="1"/>
-    <col min="6" max="7" width="28.375" customWidth="1"/>
-    <col min="8" max="8" width="48.875" customWidth="1"/>
-    <col min="9" max="9" width="28.375" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="6" max="8" width="28.375" customWidth="1"/>
+    <col min="9" max="9" width="48.875" customWidth="1"/>
+    <col min="10" max="10" width="28.375" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,20 +652,23 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1244,19 +691,22 @@
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1279,19 +729,22 @@
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1313,20 +766,23 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
       <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1348,20 +804,23 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
       <c r="K5">
         <v>2</v>
       </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1383,20 +842,23 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
       <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1418,20 +880,23 @@
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
       <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1453,20 +918,23 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1488,20 +956,23 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1523,56 +994,53 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DataTable/BattleCardTable.xlsx
+++ b/DataTable/BattleCardTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -106,9 +106,6 @@
     <t>魔法开销</t>
   </si>
   <si>
-    <t>图标路径</t>
-  </si>
-  <si>
     <t>购买开销</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>轻轻的抚摸</t>
   </si>
   <si>
-    <t>Equip/1</t>
-  </si>
-  <si>
     <t>小攻击</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>扇一巴掌</t>
   </si>
   <si>
-    <t>Equip/7</t>
-  </si>
-  <si>
     <t>中攻击</t>
   </si>
   <si>
@@ -151,9 +142,6 @@
     <t>揍一拳</t>
   </si>
   <si>
-    <t>Equip/15</t>
-  </si>
-  <si>
     <t>大攻击</t>
   </si>
   <si>
@@ -163,9 +151,6 @@
     <t>踹一脚</t>
   </si>
   <si>
-    <t>Equip/31</t>
-  </si>
-  <si>
     <t>抽卡</t>
   </si>
   <si>
@@ -175,18 +160,12 @@
     <t>摸一张</t>
   </si>
   <si>
-    <t>Skill/skill_common_evade</t>
-  </si>
-  <si>
     <t>回血</t>
   </si>
   <si>
     <t>回4滴血</t>
   </si>
   <si>
-    <t>Skill/skill_yasewang_1</t>
-  </si>
-  <si>
     <t>绷带</t>
   </si>
   <si>
@@ -194,9 +173,6 @@
   </si>
   <si>
     <t>打绷带</t>
-  </si>
-  <si>
-    <t>Skill/skill_yuefei_2</t>
   </si>
   <si>
     <r>
@@ -234,6 +210,14 @@
       </rPr>
       <t>Limit</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,7 +601,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -691,10 +675,10 @@
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
@@ -729,19 +713,19 @@
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -749,14 +733,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -769,8 +753,8 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
+      <c r="I4" s="1">
+        <v>1</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -787,13 +771,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,8 +791,8 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
+      <c r="I5" s="1">
+        <v>2</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -825,13 +809,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,8 +829,8 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>37</v>
+      <c r="I6" s="1">
+        <v>3</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -863,13 +847,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,8 +867,8 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>41</v>
+      <c r="I7" s="1">
+        <v>4</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -901,13 +885,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -921,8 +905,8 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>45</v>
+      <c r="I8" s="1">
+        <v>5</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -939,13 +923,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -959,8 +943,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>48</v>
+      <c r="I9" s="1">
+        <v>6</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -977,13 +961,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -997,8 +981,8 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>52</v>
+      <c r="I10" s="1">
+        <v>7</v>
       </c>
       <c r="J10">
         <v>5</v>

--- a/DataTable/BattleCardTable.xlsx
+++ b/DataTable/BattleCardTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -76,9 +76,6 @@
     <t>int</t>
   </si>
   <si>
-    <t xml:space="preserve">string </t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>卡牌描述</t>
   </si>
   <si>
-    <t>卡牌类型(攻击0,装备1,法术2,消耗品)</t>
-  </si>
-  <si>
     <t>卡牌品质(白绿蓝紫橙)0开始</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
   </si>
   <si>
     <t>购买开销</t>
-  </si>
-  <si>
-    <t>特效类型(BattleActionType)</t>
   </si>
   <si>
     <t>特效参数</t>
@@ -218,6 +209,137 @@
   </si>
   <si>
     <t>图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺剑式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点剑式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撩剑式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>造成2点伤害并移除对方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1个BUFF</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞燕剑</t>
+  </si>
+  <si>
+    <t>破剑式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效类型(BattleActionType)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌类型(攻击0,装备1,法术2,消耗品)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵挡下一次伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成3点伤害，本回合每使用一张剑式，则额外造成1点伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视防御造成2点伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成4点伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -597,24 +719,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="39.125" customWidth="1"/>
-    <col min="6" max="8" width="28.375" customWidth="1"/>
-    <col min="9" max="9" width="48.875" customWidth="1"/>
-    <col min="10" max="10" width="28.375" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.75" customWidth="1"/>
+    <col min="6" max="9" width="28.375" customWidth="1"/>
+    <col min="10" max="10" width="48.875" customWidth="1"/>
+    <col min="11" max="11" width="28.375" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,33 +760,36 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -675,110 +801,119 @@
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
@@ -791,31 +926,34 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -829,31 +967,34 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
       <c r="K6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -867,31 +1008,34 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
       <c r="K7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -905,31 +1049,34 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>5</v>
-      </c>
-      <c r="J8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
         <v>5</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
       <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -943,31 +1090,34 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <v>6</v>
       </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
       <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -981,17 +1131,211 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <v>7</v>
       </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
       <c r="K10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10001</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10002</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10003</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10004</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>10005</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
